--- a/CH-161 Custom Index Column.xlsx
+++ b/CH-161 Custom Index Column.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C779B50-AC91-4CA5-A09A-439E4C52B33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8172D184-7038-4194-8240-8C6B4CCA7FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -87,6 +87,9 @@
   <si>
     <t>https://www.linkedin.com/in/omid-motamedisedeh-74aba166/recent-activity/all/</t>
   </si>
+  <si>
+    <t>Alternative 1</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +146,13 @@
       <color rgb="FF000000"/>
       <name val="Corbel"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -296,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -400,6 +410,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3998,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75373CBD-1314-46D8-BEFF-B8E1C78F3E72}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4387,38 +4398,86 @@
     </row>
     <row r="17" spans="1:8" ht="14.4">
       <c r="A17" s="3"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="D17" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="str" cm="1">
+        <f t="array" ref="E17:H21">_xlfn.LET(
+_xlpm.u, TRANSPOSE(_xlfn._xlws.SORT(_xlfn.UNIQUE(C3:C11))),
+_xlpm.x,_xlfn.DROP(_xlfn.IFNA(_xlfn.REDUCE("",_xlpm.u,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.HSTACK(_xlpm.a,_xlfn._xlws.FILTER(B3:B11,C3:C11=_xlpm.v)))),""),,1),
+_xlfn.VSTACK(_xlpm.u,_xlpm.x)
+)</f>
+        <v>A</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <v>B</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <v>C</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <v>D</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="14.4">
       <c r="A18" s="3"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="E18" s="12">
+        <v>45311</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45337</v>
+      </c>
+      <c r="G18" s="13">
+        <v>45374</v>
+      </c>
+      <c r="H18" s="14">
+        <v>45394</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="E19" s="12">
+        <v>45368</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45368</v>
+      </c>
+      <c r="G19" s="13">
+        <v>45410</v>
+      </c>
+      <c r="H19" s="17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="E20" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F20" s="13">
+        <v>45376</v>
+      </c>
+      <c r="G20" s="20" t="str">
+        <v/>
+      </c>
+      <c r="H20" s="17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="E21" s="21" t="str">
+        <v/>
+      </c>
+      <c r="F21" s="22">
+        <v>45378</v>
+      </c>
+      <c r="G21" s="23" t="str">
+        <v/>
+      </c>
+      <c r="H21" s="24" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>

--- a/CH-161 Custom Index Column.xlsx
+++ b/CH-161 Custom Index Column.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8172D184-7038-4194-8240-8C6B4CCA7FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3CA02F-1BDA-43EF-AD7F-1F6FF17A4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CH-161 Custom Index Column.xlsx
+++ b/CH-161 Custom Index Column.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3CA02F-1BDA-43EF-AD7F-1F6FF17A4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232B8AC7-660C-4907-959E-B23E347933C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4007,10 +4007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75373CBD-1314-46D8-BEFF-B8E1C78F3E72}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4515,54 +4515,54 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1">
@@ -7408,12 +7408,6 @@
     </row>
     <row r="996" spans="1:1" ht="15.75" customHeight="1">
       <c r="A996" s="3"/>
-    </row>
-    <row r="997" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A997" s="3"/>
-    </row>
-    <row r="998" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A998" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
